--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4665506666666667</v>
+        <v>1.164924666666667</v>
       </c>
       <c r="H2">
-        <v>1.399652</v>
+        <v>3.494774</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.319393666666667</v>
+        <v>0.017765</v>
       </c>
       <c r="N2">
-        <v>3.958181</v>
+        <v>0.053295</v>
       </c>
       <c r="O2">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="P2">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="Q2">
-        <v>0.6155639947791113</v>
+        <v>0.02069488670333333</v>
       </c>
       <c r="R2">
-        <v>5.540075953012001</v>
+        <v>0.18625398033</v>
       </c>
       <c r="S2">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
       <c r="T2">
-        <v>0.4450432677409881</v>
+        <v>0.005225147533577419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4665506666666667</v>
+        <v>1.164924666666667</v>
       </c>
       <c r="H3">
-        <v>1.399652</v>
+        <v>3.494774</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7795190000000001</v>
+        <v>0.8788360000000001</v>
       </c>
       <c r="N3">
-        <v>2.338557</v>
+        <v>2.636508</v>
       </c>
       <c r="O3">
-        <v>0.2629387208615679</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="P3">
-        <v>0.262938720861568</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="Q3">
-        <v>0.3636851091293334</v>
+        <v>1.023777734354667</v>
       </c>
       <c r="R3">
-        <v>3.273165982164</v>
+        <v>9.213999609192001</v>
       </c>
       <c r="S3">
-        <v>0.2629387208615679</v>
+        <v>0.258488474968705</v>
       </c>
       <c r="T3">
-        <v>0.262938720861568</v>
+        <v>0.258488474968705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4665506666666667</v>
+        <v>1.164924666666667</v>
       </c>
       <c r="H4">
-        <v>1.399652</v>
+        <v>3.494774</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8657286666666666</v>
+        <v>2.503303</v>
       </c>
       <c r="N4">
-        <v>2.597186</v>
+        <v>7.509909</v>
       </c>
       <c r="O4">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="P4">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="Q4">
-        <v>0.4039062865857778</v>
+        <v>2.916159412840666</v>
       </c>
       <c r="R4">
-        <v>3.635156579272</v>
+        <v>26.245434715566</v>
       </c>
       <c r="S4">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
       <c r="T4">
-        <v>0.2920180113974439</v>
+        <v>0.7362863774977175</v>
       </c>
     </row>
   </sheetData>
